--- a/skywardsMilesData.xlsx
+++ b/skywardsMilesData.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -551,132 +551,16 @@
         <v>14,000</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" t="str">
-        <v>Emirates</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ACC</v>
-      </c>
-      <c r="D6" t="str">
-        <v>ADL</v>
-      </c>
-      <c r="E6" t="str">
-        <v>One Way</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Business</v>
-      </c>
-      <c r="G6" t="str">
-        <v>Gold</v>
-      </c>
-      <c r="H6" t="str">
-        <v>Special</v>
-      </c>
-      <c r="I6" t="str">
-        <v>6,750</v>
-      </c>
-      <c r="J6" t="str">
-        <v>1,500</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="str">
-        <v>Emirates</v>
-      </c>
-      <c r="C7" t="str">
-        <v>ACC</v>
-      </c>
-      <c r="D7" t="str">
-        <v>ADL</v>
-      </c>
-      <c r="E7" t="str">
-        <v>One Way</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Business</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Gold</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Saver</v>
-      </c>
-      <c r="I7" t="str">
-        <v>8,250</v>
-      </c>
-      <c r="J7" t="str">
-        <v>3,000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="str">
-        <v>Emirates</v>
-      </c>
-      <c r="C8" t="str">
-        <v>ACC</v>
-      </c>
-      <c r="D8" t="str">
-        <v>ADL</v>
-      </c>
-      <c r="E8" t="str">
-        <v>One Way</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Business</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Gold</v>
-      </c>
-      <c r="H8" t="str">
-        <v>Flex</v>
-      </c>
-      <c r="I8" t="str">
-        <v>10,750</v>
-      </c>
-      <c r="J8" t="str">
-        <v>5,500</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="str">
-        <v>Emirates</v>
-      </c>
-      <c r="C9" t="str">
-        <v>ACC</v>
-      </c>
-      <c r="D9" t="str">
-        <v>ADL</v>
-      </c>
-      <c r="E9" t="str">
-        <v>One Way</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Business</v>
-      </c>
-      <c r="G9" t="str">
-        <v>Gold</v>
-      </c>
-      <c r="H9" t="str">
-        <v>Flexplus</v>
-      </c>
-      <c r="I9" t="str">
-        <v>12,250</v>
-      </c>
-      <c r="J9" t="str">
-        <v>7,000</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J5"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -867,10 +751,10 @@
         <v>Special</v>
       </c>
       <c r="I6" t="str">
-        <v>6,750</v>
+        <v>900</v>
       </c>
       <c r="J6" t="str">
-        <v>1,500</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -899,10 +783,10 @@
         <v>Saver</v>
       </c>
       <c r="I7" t="str">
-        <v>8,250</v>
+        <v>1,050</v>
       </c>
       <c r="J7" t="str">
-        <v>3,000</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -931,10 +815,10 @@
         <v>Flex</v>
       </c>
       <c r="I8" t="str">
-        <v>10,750</v>
+        <v>1,000</v>
       </c>
       <c r="J8" t="str">
-        <v>5,500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
@@ -963,15 +847,271 @@
         <v>Flexplus</v>
       </c>
       <c r="I9" t="str">
+        <v>1,225</v>
+      </c>
+      <c r="J9" t="str">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C10" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="D10" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Platinum</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Special</v>
+      </c>
+      <c r="I10" t="str">
+        <v>4,200</v>
+      </c>
+      <c r="J10" t="str">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C11" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="D11" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Platinum</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Saver</v>
+      </c>
+      <c r="I11" t="str">
+        <v>7,350</v>
+      </c>
+      <c r="J11" t="str">
+        <v>2,100</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C12" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="D12" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Platinum</v>
+      </c>
+      <c r="H12" t="str">
+        <v>Flex</v>
+      </c>
+      <c r="I12" t="str">
+        <v>10,500</v>
+      </c>
+      <c r="J12" t="str">
+        <v>5,250</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C13" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="D13" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Round Trip</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Premium</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Platinum</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Flexplus</v>
+      </c>
+      <c r="I13" t="str">
         <v>12,250</v>
       </c>
-      <c r="J9" t="str">
+      <c r="J13" t="str">
         <v>7,000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C14" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="D14" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="E14" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F14" t="str">
+        <v>First</v>
+      </c>
+      <c r="G14" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="H14" t="str">
+        <v>Special</v>
+      </c>
+      <c r="I14" t="str">
+        <v>1,808</v>
+      </c>
+      <c r="J14" t="str">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C15" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="D15" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="E15" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F15" t="str">
+        <v>First</v>
+      </c>
+      <c r="G15" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="H15" t="str">
+        <v>Saver</v>
+      </c>
+      <c r="I15" t="str">
+        <v>1,925</v>
+      </c>
+      <c r="J15" t="str">
+        <v>1,050</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C16" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="D16" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="E16" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F16" t="str">
+        <v>First</v>
+      </c>
+      <c r="G16" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="H16" t="str">
+        <v>Flex</v>
+      </c>
+      <c r="I16" t="str">
+        <v>3,500</v>
+      </c>
+      <c r="J16" t="str">
+        <v>2,625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Earn</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Emirates</v>
+      </c>
+      <c r="C17" t="str">
+        <v>ADD</v>
+      </c>
+      <c r="D17" t="str">
+        <v>AMM</v>
+      </c>
+      <c r="E17" t="str">
+        <v>One Way</v>
+      </c>
+      <c r="F17" t="str">
+        <v>First</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Silver</v>
+      </c>
+      <c r="H17" t="str">
+        <v>Flexplus</v>
+      </c>
+      <c r="I17" t="str">
+        <v>4,375</v>
+      </c>
+      <c r="J17" t="str">
+        <v>3,500</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:J9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:J17"/>
   </ignoredErrors>
 </worksheet>
 </file>